--- a/documents/Decibel Labs - Credits.xlsx
+++ b/documents/Decibel Labs - Credits.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FxServer\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EF5952-6A06-4501-A58E-480BA9086AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CEA43B-0A99-4C78-ABCD-325B9C112335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="1" r:id="rId1"/>
     <sheet name="Scripts" sheetId="2" r:id="rId2"/>
+    <sheet name="HUD" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>vMenu</t>
   </si>
@@ -53,6 +54,15 @@
   </si>
   <si>
     <t>https://github.com/ND-Framework/ND_Framework</t>
+  </si>
+  <si>
+    <t>Date Added</t>
+  </si>
+  <si>
+    <t>Andyyy7666/SimpleHUD: Simple HUD for FiveM with a location, postal, and time display. (github.com)</t>
+  </si>
+  <si>
+    <t>SimpleHUD</t>
   </si>
 </sst>
 </file>
@@ -105,10 +115,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -390,44 +412,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="C8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5">
+        <v>44810</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{CCD4A5E0-873E-4C4E-8F68-FB07832675B1}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{CCD4A5E0-873E-4C4E-8F68-FB07832675B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -436,43 +465,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546CA7AD-E02C-49C4-AD9C-ED29A5D8FF6F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C47" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5">
+        <v>44810</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{A7AE795B-AF4B-4A3D-9483-F891F6ECCB02}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A7AE795B-AF4B-4A3D-9483-F891F6ECCB02}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A65E762-5E8A-43DA-AFE7-F324352F4BBE}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>44810</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://github.com/Andyyy7666/SimpleHUD" xr:uid="{8C27674D-BDB4-4FF7-9EFA-985B4B545B07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/Decibel Labs - Credits.xlsx
+++ b/documents/Decibel Labs - Credits.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FxServer\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CEA43B-0A99-4C78-ABCD-325B9C112335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934088A5-EB4A-47E5-9ABA-C0EEEE2390B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="1" r:id="rId1"/>
     <sheet name="Scripts" sheetId="2" r:id="rId2"/>
     <sheet name="HUD" sheetId="3" r:id="rId3"/>
+    <sheet name="Maps" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>vMenu</t>
   </si>
@@ -63,6 +64,15 @@
   </si>
   <si>
     <t>SimpleHUD</t>
+  </si>
+  <si>
+    <t>TeslaSuperchargerStations</t>
+  </si>
+  <si>
+    <t>Tesla Superchargers Stations [SP/FiveM] - GTA5-Mods.com</t>
+  </si>
+  <si>
+    <t>Edited ItzNikos_TeslaSuperCharger.ytyp to work with ND_Fuel, updated to FxManifest.lua</t>
   </si>
 </sst>
 </file>
@@ -520,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A65E762-5E8A-43DA-AFE7-F324352F4BBE}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,4 +574,57 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80BCC9B-FC82-4C59-8ADB-3F1EC5E58827}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5">
+        <v>44811</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.gta5-mods.com/maps/tesla-superchargers-stations-sp-fivem" xr:uid="{F89745B9-90DB-4644-AA58-B8F82746B758}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>